--- a/data/pca/factorExposure/factorExposure_2012-08-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002715452156109265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001895570612245275</v>
+      </c>
+      <c r="C2">
+        <v>0.02871294743268855</v>
+      </c>
+      <c r="D2">
+        <v>0.004498479745545982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003137960115909905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006699268202059647</v>
+      </c>
+      <c r="C4">
+        <v>0.08439016765559697</v>
+      </c>
+      <c r="D4">
+        <v>0.06512519841233609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005379946809383679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01485470990504546</v>
+      </c>
+      <c r="C6">
+        <v>0.1183530977066345</v>
+      </c>
+      <c r="D6">
+        <v>0.01901305882810646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0003343551979890031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005051252181189054</v>
+      </c>
+      <c r="C7">
+        <v>0.05952594371522276</v>
+      </c>
+      <c r="D7">
+        <v>0.03219608833377808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009513220241277118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.00491963518595295</v>
+      </c>
+      <c r="C8">
+        <v>0.03594667142418358</v>
+      </c>
+      <c r="D8">
+        <v>0.03684302627023475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003527565358530315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.006023382693546564</v>
+      </c>
+      <c r="C9">
+        <v>0.0735814919064694</v>
+      </c>
+      <c r="D9">
+        <v>0.07036488209391922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.668430983129191e-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00158044871067763</v>
+      </c>
+      <c r="C10">
+        <v>0.05030186349011238</v>
+      </c>
+      <c r="D10">
+        <v>-0.1850366890910607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00022868039254154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006495558794507488</v>
+      </c>
+      <c r="C11">
+        <v>0.08152890623542611</v>
+      </c>
+      <c r="D11">
+        <v>0.06714344816239662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0004429045170695463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00482427946096583</v>
+      </c>
+      <c r="C12">
+        <v>0.06694525906887247</v>
+      </c>
+      <c r="D12">
+        <v>0.04838021285279647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00242916843200175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009524085030534804</v>
+      </c>
+      <c r="C13">
+        <v>0.07092494922394073</v>
+      </c>
+      <c r="D13">
+        <v>0.05711617310219019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001835770919586942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008867820898818009</v>
+      </c>
+      <c r="C14">
+        <v>0.04376941398383249</v>
+      </c>
+      <c r="D14">
+        <v>0.01285865211432463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001741792115124709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006327578014128026</v>
+      </c>
+      <c r="C15">
+        <v>0.04078879824209929</v>
+      </c>
+      <c r="D15">
+        <v>0.02574704559068471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0001891894424366856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005528310091281107</v>
+      </c>
+      <c r="C16">
+        <v>0.06557676691439969</v>
+      </c>
+      <c r="D16">
+        <v>0.05631366866546865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002699425741809127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009061134843302331</v>
+      </c>
+      <c r="C20">
+        <v>0.06524286198399153</v>
+      </c>
+      <c r="D20">
+        <v>0.04930773823448609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00553791388792921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009523564071616612</v>
+      </c>
+      <c r="C21">
+        <v>0.02195957207069262</v>
+      </c>
+      <c r="D21">
+        <v>0.04093154469495444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02034137009660699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007289842888745636</v>
+      </c>
+      <c r="C22">
+        <v>0.08646418131127742</v>
+      </c>
+      <c r="D22">
+        <v>0.1178910490596957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02000280732663923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006994458569768009</v>
+      </c>
+      <c r="C23">
+        <v>0.08688909467192553</v>
+      </c>
+      <c r="D23">
+        <v>0.1189721421124742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0008358512520134198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006315148055500854</v>
+      </c>
+      <c r="C24">
+        <v>0.07808263426425664</v>
+      </c>
+      <c r="D24">
+        <v>0.06613556839609962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002425911181354053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003855822294012978</v>
+      </c>
+      <c r="C25">
+        <v>0.0792685059534558</v>
+      </c>
+      <c r="D25">
+        <v>0.06303066443232472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001274448081171076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003942713350036228</v>
+      </c>
+      <c r="C26">
+        <v>0.04024026070640806</v>
+      </c>
+      <c r="D26">
+        <v>0.02109821961524939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007525231829307194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002567404012802395</v>
+      </c>
+      <c r="C28">
+        <v>0.1007151593889168</v>
+      </c>
+      <c r="D28">
+        <v>-0.3257689821026566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006001525597304327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003503912993882055</v>
+      </c>
+      <c r="C29">
+        <v>0.04760797432282694</v>
+      </c>
+      <c r="D29">
+        <v>0.01018705702378714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00262784152614096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009714531074336272</v>
+      </c>
+      <c r="C30">
+        <v>0.1420747883060503</v>
+      </c>
+      <c r="D30">
+        <v>0.1073775519219922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002054402879898435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00638694903894056</v>
+      </c>
+      <c r="C31">
+        <v>0.04445881923991571</v>
+      </c>
+      <c r="D31">
+        <v>0.02837100773607315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004861012881222904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004658939187519873</v>
+      </c>
+      <c r="C32">
+        <v>0.03807439786518961</v>
+      </c>
+      <c r="D32">
+        <v>0.01705726411487349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0003610185527480567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009088572808308836</v>
+      </c>
+      <c r="C33">
+        <v>0.09153899681917368</v>
+      </c>
+      <c r="D33">
+        <v>0.06151294324643507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0006833151374338979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004959996686784777</v>
+      </c>
+      <c r="C34">
+        <v>0.05933449219861912</v>
+      </c>
+      <c r="D34">
+        <v>0.05676569196136571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0018313136626883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005142181554421198</v>
+      </c>
+      <c r="C35">
+        <v>0.04097212407636108</v>
+      </c>
+      <c r="D35">
+        <v>0.01403998730959252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004688284457184755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001458540003788644</v>
+      </c>
+      <c r="C36">
+        <v>0.0254267987684728</v>
+      </c>
+      <c r="D36">
+        <v>0.01999799919188359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002704303492071479</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008780467439120256</v>
+      </c>
+      <c r="C38">
+        <v>0.04033830010551346</v>
+      </c>
+      <c r="D38">
+        <v>0.01282877703370747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01068652995051988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001171191910478032</v>
+      </c>
+      <c r="C39">
+        <v>0.1141782938525167</v>
+      </c>
+      <c r="D39">
+        <v>0.08298869381680117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004697570030704916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002849155514375664</v>
+      </c>
+      <c r="C40">
+        <v>0.09091327112018111</v>
+      </c>
+      <c r="D40">
+        <v>0.01633508289481588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002463922157849572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007691505448489461</v>
+      </c>
+      <c r="C41">
+        <v>0.04202929906535128</v>
+      </c>
+      <c r="D41">
+        <v>0.04471054299954535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001907103252373091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004139318813254623</v>
+      </c>
+      <c r="C43">
+        <v>0.05444045798230503</v>
+      </c>
+      <c r="D43">
+        <v>0.02729907766125517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007658769977358979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002362060053150973</v>
+      </c>
+      <c r="C44">
+        <v>0.1045041005780867</v>
+      </c>
+      <c r="D44">
+        <v>0.06255202214533423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001755381174192618</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001185373193001745</v>
+      </c>
+      <c r="C46">
+        <v>0.03379139255662036</v>
+      </c>
+      <c r="D46">
+        <v>0.03455493841491779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.000134558564301618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.003254374194895632</v>
+      </c>
+      <c r="C47">
+        <v>0.0350140394620149</v>
+      </c>
+      <c r="D47">
+        <v>0.01973180828768645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004775726984375317</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007824631042908805</v>
+      </c>
+      <c r="C48">
+        <v>0.03372426102518712</v>
+      </c>
+      <c r="D48">
+        <v>0.02729559565691582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005335940218458007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01867784892816215</v>
+      </c>
+      <c r="C49">
+        <v>0.1870289237869824</v>
+      </c>
+      <c r="D49">
+        <v>0.01146927039342318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-7.809824790903103e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004252563680348488</v>
+      </c>
+      <c r="C50">
+        <v>0.0429458846231492</v>
+      </c>
+      <c r="D50">
+        <v>0.03751131802377001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001613794855350147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003867761256827921</v>
+      </c>
+      <c r="C51">
+        <v>0.02713740467146444</v>
+      </c>
+      <c r="D51">
+        <v>0.0232934226656775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008820489654770001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02213696029843255</v>
+      </c>
+      <c r="C53">
+        <v>0.1720553527367594</v>
+      </c>
+      <c r="D53">
+        <v>0.02055874810026295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003291170330873419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009595720926351487</v>
+      </c>
+      <c r="C54">
+        <v>0.05748264524117364</v>
+      </c>
+      <c r="D54">
+        <v>0.03965387758879262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00228430613186298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01037802003678982</v>
+      </c>
+      <c r="C55">
+        <v>0.1088846532661258</v>
+      </c>
+      <c r="D55">
+        <v>0.03309509004212895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009129216957251817</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02177923544310713</v>
+      </c>
+      <c r="C56">
+        <v>0.175329138683337</v>
+      </c>
+      <c r="D56">
+        <v>0.01402105494337098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001591169022997189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01699883285484563</v>
+      </c>
+      <c r="C58">
+        <v>0.1067794556226109</v>
+      </c>
+      <c r="D58">
+        <v>0.05816870463340904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003161779030661612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009600882305757074</v>
+      </c>
+      <c r="C59">
+        <v>0.1668400463737948</v>
+      </c>
+      <c r="D59">
+        <v>-0.349162968771949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008432747919666837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02659783011768369</v>
+      </c>
+      <c r="C60">
+        <v>0.2248808210955786</v>
+      </c>
+      <c r="D60">
+        <v>0.01879501376977596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009993125096775121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00177554213626558</v>
+      </c>
+      <c r="C61">
+        <v>0.09544943160826665</v>
+      </c>
+      <c r="D61">
+        <v>0.06045196911891369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1501808457240517</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1538784826321323</v>
+      </c>
+      <c r="C62">
+        <v>0.1026363197361804</v>
+      </c>
+      <c r="D62">
+        <v>0.01684632722353276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007555933700529284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006525603046102156</v>
+      </c>
+      <c r="C63">
+        <v>0.05405892581525719</v>
+      </c>
+      <c r="D63">
+        <v>0.03300110127677181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01038504795300237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01739834321112535</v>
+      </c>
+      <c r="C64">
+        <v>0.1080844125359371</v>
+      </c>
+      <c r="D64">
+        <v>0.05225324451646775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008210477523870214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01770814557786866</v>
+      </c>
+      <c r="C65">
+        <v>0.1187516322985145</v>
+      </c>
+      <c r="D65">
+        <v>0.02134469447085875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001350630524545066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01322911014516222</v>
+      </c>
+      <c r="C66">
+        <v>0.162602977593174</v>
+      </c>
+      <c r="D66">
+        <v>0.1152182051065421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006033605178276858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01532655693891008</v>
+      </c>
+      <c r="C67">
+        <v>0.07299127249229607</v>
+      </c>
+      <c r="D67">
+        <v>0.02579066382934775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005114208427176328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003265218324757557</v>
+      </c>
+      <c r="C68">
+        <v>0.08190371132550113</v>
+      </c>
+      <c r="D68">
+        <v>-0.2616675980319851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001162567973429796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006418134665912836</v>
+      </c>
+      <c r="C69">
+        <v>0.0515418446290028</v>
+      </c>
+      <c r="D69">
+        <v>0.03615476491910253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001575635627377776</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002678020986675375</v>
+      </c>
+      <c r="C70">
+        <v>0.008892055694598533</v>
+      </c>
+      <c r="D70">
+        <v>-0.001709667441136104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-2.159018343598937e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004457306231156358</v>
+      </c>
+      <c r="C71">
+        <v>0.08686081412538318</v>
+      </c>
+      <c r="D71">
+        <v>-0.3032475879191921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004950435937155992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01831628076010997</v>
+      </c>
+      <c r="C72">
+        <v>0.1566808854095755</v>
+      </c>
+      <c r="D72">
+        <v>0.009765762284087471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009674944272263449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0315240838073902</v>
+      </c>
+      <c r="C73">
+        <v>0.2815518274170685</v>
+      </c>
+      <c r="D73">
+        <v>0.05614631334755799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005681976272908556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001933332493576866</v>
+      </c>
+      <c r="C74">
+        <v>0.1032569466974079</v>
+      </c>
+      <c r="D74">
+        <v>0.0312157550558008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-3.924724192752723e-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01232639931984736</v>
+      </c>
+      <c r="C75">
+        <v>0.1204514169657928</v>
+      </c>
+      <c r="D75">
+        <v>0.02590068718709684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01101507305328145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02247312671473223</v>
+      </c>
+      <c r="C76">
+        <v>0.146998743950736</v>
+      </c>
+      <c r="D76">
+        <v>0.05508497773590586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00586187334423596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02106338608585303</v>
+      </c>
+      <c r="C77">
+        <v>0.1091387953299432</v>
+      </c>
+      <c r="D77">
+        <v>0.04757549864963303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004001850158298594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01444616420187568</v>
+      </c>
+      <c r="C78">
+        <v>0.1012838271167906</v>
+      </c>
+      <c r="D78">
+        <v>0.07913399335242105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02762065068770672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03944267646025196</v>
+      </c>
+      <c r="C79">
+        <v>0.1566022506614771</v>
+      </c>
+      <c r="D79">
+        <v>0.02995687471456875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006541717459188068</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009891388087655677</v>
+      </c>
+      <c r="C80">
+        <v>0.03928566071927127</v>
+      </c>
+      <c r="D80">
+        <v>0.03079482843879977</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005296617949658582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01676168318875002</v>
+      </c>
+      <c r="C81">
+        <v>0.131302220631338</v>
+      </c>
+      <c r="D81">
+        <v>0.03504982003421481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007982283673237152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02019574724386441</v>
+      </c>
+      <c r="C82">
+        <v>0.1366011161311043</v>
+      </c>
+      <c r="D82">
+        <v>0.03522466326115006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00368072164527543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0123328867265815</v>
+      </c>
+      <c r="C83">
+        <v>0.06381249648742149</v>
+      </c>
+      <c r="D83">
+        <v>0.04586221291760691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004213963190954721</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006731929961947486</v>
+      </c>
+      <c r="C84">
+        <v>0.03537274618559592</v>
+      </c>
+      <c r="D84">
+        <v>0.01423270906170863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01905143180953511</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02923424607638024</v>
+      </c>
+      <c r="C85">
+        <v>0.1239048572373545</v>
+      </c>
+      <c r="D85">
+        <v>0.03900683421235995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002664789814765559</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003907643512658529</v>
+      </c>
+      <c r="C86">
+        <v>0.05129439050486675</v>
+      </c>
+      <c r="D86">
+        <v>0.023714542739302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001485595966397773</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01213610792000567</v>
+      </c>
+      <c r="C87">
+        <v>0.1285523595043565</v>
+      </c>
+      <c r="D87">
+        <v>0.07073748894591886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008609624549106366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002822255386881068</v>
+      </c>
+      <c r="C88">
+        <v>0.06413482109284592</v>
+      </c>
+      <c r="D88">
+        <v>0.02755964296560359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01198250304556552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003010051608148481</v>
+      </c>
+      <c r="C89">
+        <v>0.1317172248320065</v>
+      </c>
+      <c r="D89">
+        <v>-0.3217810908188128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002584759661437384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005343476062439062</v>
+      </c>
+      <c r="C90">
+        <v>0.1142233561634047</v>
+      </c>
+      <c r="D90">
+        <v>-0.3146769762183956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002597800114736101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01163870645192633</v>
+      </c>
+      <c r="C91">
+        <v>0.09904052482473878</v>
+      </c>
+      <c r="D91">
+        <v>0.02640547696685357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006324131955115211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006049542468216536</v>
+      </c>
+      <c r="C92">
+        <v>0.126498117526256</v>
+      </c>
+      <c r="D92">
+        <v>-0.3269940956446713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001940410628809741</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003208021701547296</v>
+      </c>
+      <c r="C93">
+        <v>0.102195891960512</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011604491798716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01077558845795179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02263798295986676</v>
+      </c>
+      <c r="C94">
+        <v>0.1378307603471171</v>
+      </c>
+      <c r="D94">
+        <v>0.05316264139573317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007080115002941677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01665613331801214</v>
+      </c>
+      <c r="C95">
+        <v>0.1220392295120187</v>
+      </c>
+      <c r="D95">
+        <v>0.06705179811184499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0177943694785554</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03800385603910949</v>
+      </c>
+      <c r="C97">
+        <v>0.2225139049539153</v>
+      </c>
+      <c r="D97">
+        <v>-0.005316589633811964</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0116301454482533</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04005192525315881</v>
+      </c>
+      <c r="C98">
+        <v>0.2623283971412347</v>
+      </c>
+      <c r="D98">
+        <v>0.03343990713462047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864354531255698</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9802149569888871</v>
+      </c>
+      <c r="C99">
+        <v>-0.1237485150381329</v>
+      </c>
+      <c r="D99">
+        <v>-0.02577473207528054</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006239737425485194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003493537294905362</v>
+      </c>
+      <c r="C101">
+        <v>0.04778533174115829</v>
+      </c>
+      <c r="D101">
+        <v>0.01084238662830096</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
